--- a/data/trans_bre/P18_5_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P18_5_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,39</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,25</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,93</t>
+          <t>10,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>12,02</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,25%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>35,71%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>53,74%</t>
+          <t>30,24%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>61,4%</t>
+          <t>39,07%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-1,29%</t>
+          <t>39,5%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>73,68%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>91,41%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 13,97</t>
+          <t>-13,12; 19,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 12,61</t>
+          <t>-17,48; 16,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,61; 16,01</t>
+          <t>-1,38; 14,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 14,89</t>
+          <t>4,15; 17,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 5,09</t>
+          <t>1,25; 23,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 66,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-39,01; 154,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,39; 111,96</t>
+          <t>-36,32; 116,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,16; 136,57</t>
+          <t>-59,32; 268,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 6,28</t>
+          <t>-6,91; 106,88</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>21,32; 160,01</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3,16; 294,55</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,33</t>
+          <t>8,64</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,95</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>33,16%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>96,76%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>48,89%</t>
+          <t>37,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>42,36%</t>
+          <t>39,88%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-8,67%</t>
+          <t>51,14%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>42,54%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>40,09%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 12,15</t>
+          <t>0,89; 16,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 8,72</t>
+          <t>-1,72; 8,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 8,73</t>
+          <t>0,97; 9,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 9,01</t>
+          <t>0,07; 9,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,14; -3,92</t>
+          <t>-0,47; 10,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,38; 65,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,2; 206,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,79; 104,93</t>
+          <t>2,71; 82,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 101,85</t>
+          <t>-18,27; 156,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-13,06; -4,46</t>
+          <t>5,74; 113,93</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 109,67</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-3,77; 113,68</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,17 +988,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -896,32 +1008,52 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,19</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-8,09%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>38,58%</t>
+          <t>28,52%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>33,12%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-8,81%</t>
+          <t>57,4%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>32,99%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>36,91%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 11,57</t>
+          <t>-1,18; 16,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 3,69</t>
+          <t>-6,06; 5,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 9,55</t>
+          <t>1,29; 11,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 8,6</t>
+          <t>-0,22; 8,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,31; -2,87</t>
+          <t>-2,88; 10,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 53,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-44,48; 49,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 92,57</t>
+          <t>-5,39; 80,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 86,44</t>
+          <t>-43,84; 95,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-15,22; -3,16</t>
+          <t>6,77; 129,7</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 87,63</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-19,53; 116,63</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>8,33</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-6,06</t>
+          <t>5,39</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>27,74%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>41,76%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>50,79%</t>
+          <t>24,04%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>47,07%</t>
+          <t>33,5%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-6,73%</t>
+          <t>66,45%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>52,95%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,81; 10,13</t>
+          <t>0,9; 10,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 6,46</t>
+          <t>-1,89; 6,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 9,22</t>
+          <t>2,09; 13,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,65; 8,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,25; -3,07</t>
+          <t>0,01; 11,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,63; 47,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,77; 94,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,12; 82,75</t>
+          <t>3,1; 51,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,92; 79,52</t>
+          <t>-16,28; 105,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-10,09; -3,44</t>
+          <t>13,63; 145,99</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-2,67; 143,74</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6,58</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,88</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,73</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6,18</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6,37</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>28,01%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>31,27%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>54,54%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>49,87%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>54,13%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3,14; 10,67</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 5,45</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4,05; 9,46</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3,16; 9,34</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3,45; 9,92</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>12,47; 49,41</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-8,5; 70,02</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>30,19; 91,36</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>20,93; 84,99</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>23,29; 96,95</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
